--- a/outPutWeeklyReport.xlsx
+++ b/outPutWeeklyReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Time</t>
   </si>
@@ -40,50 +40,50 @@
     <t>10.8-10.14</t>
   </si>
   <si>
-    <t xml:space="preserve">1.[Bug] GCS-10696:&lt;sqa&gt;:&lt;amf&gt;:&lt;uemgr&gt;: AMF doesnot reply mme with Forward Relocation Response when doesnot discover a smf.
-</t>
-  </si>
-  <si>
-    <t>ChenJianDe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[其它] GCS-10168:Merge master tracing into release2.1
+    <t xml:space="preserve">1.[Bug] GCS-xxx:&lt;sqa&gt;:&lt;&gt;:&lt;&gt;:  doesnot reply  with Forward Relocation Response when doesnot discover a .
+</t>
+  </si>
+  <si>
+    <t>ChenYi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[其它] GCS-xxx:Merge master tracing into release2.1
     - Status: Complete
-2.[Bug] GCS-10696:AMF doesnot reply mme with Forward Relocation Response when doesnot discover a smf.
+2.[Bug] GCS-xxx:AMF doesnot reply  with Forward Relocation Response when doesnot discover a .
     - Status: In progress
-    - Progress: Find that smf can't register to nrf with pgwFQDN now.
+    - Progress: Find that  can't register to nrf with  now.
 Related smf bug id are
-GCS-11404 and GCS-10378
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-10413: 
-2.[Bug] GCS-10521:kpi issues
-</t>
-  </si>
-  <si>
-    <t>HeNuanFen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-11117:AMF alarms Http.SmContextsPost
+GCS-11404 and GCS-xxx
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] GCS-: 
+2.[Bug] GCS-:kpi issues
+</t>
+  </si>
+  <si>
+    <t>HeEr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] GCS-: alarms Http.SmContextsPost
     - Status: Fixed
-2.[Bug] GCS-11118:AMF count "SmContextPosts" statusCode
+2.[Bug] GCS-: count "SmContextPosts" statusCode
     - Status: Fixed
-3.[Bug] GCS-10575: grafana dashboard displays Uecm Registration Success Rate panel
+3.[Bug] GCS-: grafana dashboard displays Uecm Registration Success Rate panel
     - Status: In progress
     - Progress: Wating to be reviewed &amp; merged
-4.[Bug] GCS-10413:Target AMF support security algorithm update in Mobility Registration Update Procedure
+4.[Bug] GCS-:Target AMF support security algorithm update in Mobility Registration Update Procedure
     - Status: In progress
     - Progress: Coding
 5.[其它] write doc 《探索 PromQL》
     - Status: Complete
-    - Progress: http://172.0.15.220/zh/k8s/prometheus/%E6%8E%A2%E7%B4%A2Promql
+    - Progress: http:///zh/k8s/prometheus/%E6%8E%A2%E7%B4%A2Promql
 6.[其它] write doc 《Prometheus 告警处理》
     - Status: Complete
-    - Progress: http://172.0.15.220/zh/k8s/prometheus/prometheus%E5%91%8A%E8%AD%A6%E5%A4%84%E7%90%86
+    - Progress: http:///zh/k8s/prometheus/prometheus%E5%91%8A%E8%AD%A6%E5%A4%84%E7%90%86
 7.[其它] write doc 《分析 CASA alert 规则》
     - Status: Complete
-    - Progress: http://172.0.15.220/zh/k8s/prometheus/%E5%88%86%E6%9E%90Casa-Alert%E8%A7%84%E5%88%99
+    - Progress: http:///zh/k8s/prometheus/%E5%88%86%E6%9E%90Casa-Alert%E8%A7%84%E5%88%99
 </t>
   </si>
   <si>
@@ -91,14 +91,14 @@
 </t>
   </si>
   <si>
-    <t>LiMingEn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Feature] GCS-11066:SMF should support S6B in 3GPP Access to Untrusted Non-3GPP IP Access Handover with GTP on S2b
+    <t>xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Feature] GCS-: should support S6B in 3GPP Access to Untrusted Non-3GPP IP Access Handover with GTP on S2b
     - Status: In progress
     - Progress: Finish codeing without trace. Finish test by smf-tester.
 Waiting for merge
-2.[Feature] GCS-11136:AAA-Client should support to handle s6b AAR and AAA for claro
+2.[Feature] GCS-:AAA-Client should support to handle s6b AAR and AAA for claro
     - Status: In progress
     - Progress: Finish codeing.
 Finish test by smf-tester.
@@ -106,29 +106,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.[Bug] GCS-11042:&lt;sqa&gt;:&lt;amf&gt;:&lt;uemgr&gt;: AMF should set the rat type as NR during EPS to 5G handover.
-</t>
-  </si>
-  <si>
-    <t>CuiMingShu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-11042:AMF should set the rat type as NR during EPS to 5G handover.
+    <t xml:space="preserve">1.[Bug] GCS-:&lt;sqa&gt;:&lt;&gt;:&lt;&gt;:  should set the rat type as NR during EPS to 5G handover.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] GCS-: should set the rat type as NR during EPS to 5G handover.
     - Status: Complete
-2.[Bug] GCS-11077:AMF does not reply the "reportList" in rsp message after receiving modify subscription event request with immediateFlag attribute set to true.
+2.[Bug] GCS-: does not reply the "reportList" in rsp message after receiving modify subscription event request with immediateFlag attribute set to true.
     - Status: In progress
     - Progress: Testing
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.[Feature] GCS-10613:gtpp dictionary custom24
-</t>
-  </si>
-  <si>
-    <t>MaZhenFeng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-10613:gtpp dictionary custom24
+    <t xml:space="preserve">1.[Feature] GCS-:gtpp dictionary custom24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] GCS-:gtpp dictionary custom24
     - Status: In progress
     - Progress: code: finish
 test: 90%
@@ -140,9 +134,6 @@
 </t>
   </si>
   <si>
-    <t>ChenJiaWen</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.[Study] Continue on learning k8s and operator, then do the learning&amp;sharing.
     - Status: Complete
 2.[Study] Learn code of sctpmgr, n2mgr and understand how they interact by grpc.
@@ -154,9 +145,6 @@
 </t>
   </si>
   <si>
-    <t>ZhongRongBin</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.[Study] Do a presentation about premetheus and grafana.
     - Status: Complete
 2.[Study] Read the code of n2mgr and sctpmgr.
@@ -164,18 +152,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.[Bug] FGC-3085:YTL testing, DCNR feature.
-</t>
-  </si>
-  <si>
-    <t>SunJianHua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] FGC-2958: IVC: Issue with 'show mme statistics slg-interface diameter verbose'
+    <t xml:space="preserve">1.[Bug] FGC-:YTL testing, DCNR feature.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] FGC-: IVC: Issue with 'show mme statistics slg-interface diameter verbose'
     - Status: Fixed
-2.[Bug] FGC-3095:MME shall set the UE sessions as idle state if the sctp association has been aborted
+2.[Bug] FGC-:MME shall set the UE sessions as idle state if the sctp association has been aborted
     - Status: Close
-3.[Bug] FGC-3016:If there is a DCN for ue, MME should select PGW using ue-usage-type.
+3.[Bug] FGC-:If there is a DCN for ue, MME should select PGW using ue-usage-type.
     - Status: In progress
     - Progress: Met other issue during the self test
 4.[Study] Add 3 MME function description documents to confluence.
@@ -186,38 +171,40 @@
     <t>10.17-10.21</t>
   </si>
   <si>
-    <t xml:space="preserve">1.[Bug] GCS-10696: 
-2.[Bug] GCS-10984: 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-10413: 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Feature] GCS-11066:Finish tracce part and new a tc.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-11077:AMF does not reply the "reportList" in rsp message after receiving modify subscription event request with immediateFlag attribute set to true.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-10613:https://jira.casa-systems.com/browse/GCS-10613
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-11382: log info "Ignoring event NgapUeRadioCapabilityInfoIndication received in state Idle, procedure ServiceRequestProcedure".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] GCS-11369: AMF send duplicate subscription to NRF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.[Bug] FGC-3016:If there is a DCN for ue, MME should select PGW using ue-usage-type.
-2.[Bug] FGC-3099:MME connmgr/0 crash exit-code 139 on MME version 1.6.44.
-</t>
+    <t xml:space="preserve">1.[Bug] GCS-: 
+2.[Bug] GCS-: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] GCS-: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Feature] GCS-:Finish tracce part and new a tc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] GCS-: does not reply the "reportList" in rsp message after receiving modify subscription event request with immediateFlag attribute set to true.
+</t>
+  </si>
+  <si>
+    <t>1.[Bug] GCS-:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] GCS-: log info "Ignoring event NgapUeRadioCapabilityInfoIndication received in state Idle, procedure ServiceRequestProcedure".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] GCS-:  send duplicate subscription to 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.[Bug] FGC-:If there is a DCN for ue,  should select PGW using ue-usage-type.
+2.[Bug] FGC-: /0 crash exit-code 139 on  version 1.6.44.
+</t>
+  </si>
+  <si>
+    <t>SunJianHua</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1325,90 +1312,90 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="155" customHeight="1" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="119" customHeight="1" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="238" customHeight="1" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1440,10 +1427,10 @@
     </row>
     <row r="16" ht="85" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>40</v>
@@ -1458,7 +1445,7 @@
     <row r="17" ht="51" customHeight="1" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>40</v>
@@ -1473,7 +1460,7 @@
     <row r="18" ht="51" customHeight="1" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>40</v>
@@ -1488,13 +1475,13 @@
     <row r="19" ht="81" customHeight="1" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1503,13 +1490,13 @@
     <row r="20" ht="58" customHeight="1" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1518,13 +1505,13 @@
     <row r="21" ht="62" customHeight="1" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1533,13 +1520,13 @@
     <row r="22" ht="51" customHeight="1" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1548,13 +1535,13 @@
     <row r="23" ht="112" customHeight="1" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>

--- a/outPutWeeklyReport.xlsx
+++ b/outPutWeeklyReport.xlsx
@@ -49,11 +49,11 @@
   <si>
     <t xml:space="preserve">1.[其它] GCS-xxx:Merge master tracing into release2.1
     - Status: Complete
-2.[Bug] GCS-xxx:AMF doesnot reply  with Forward Relocation Response when doesnot discover a .
+2.[Bug] GCS-xxx:  doesnot reply  with Forward Relocation Response when doesnot discover a .
     - Status: In progress
-    - Progress: Find that  can't register to nrf with  now.
-Related smf bug id are
-GCS-11404 and GCS-xxx
+    - Progress: Find that  can't register to   with  now.
+Related   bug id are
+GCS-  and GCS-xxx
 </t>
   </si>
   <si>
@@ -72,7 +72,7 @@
 3.[Bug] GCS-: grafana dashboard displays Uecm Registration Success Rate panel
     - Status: In progress
     - Progress: Wating to be reviewed &amp; merged
-4.[Bug] GCS-:Target AMF support security algorithm update in Mobility Registration Update Procedure
+4.[Bug] GCS-:Target   support security algorithm update in Mobility Registration Update Procedure
     - Status: In progress
     - Progress: Coding
 5.[其它] write doc 《探索 PromQL》
@@ -156,14 +156,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.[Bug] FGC-: IVC: Issue with 'show mme statistics slg-interface diameter verbose'
+    <t xml:space="preserve">1.[Bug] FGC-:  : Issue with 'show mme statistics slg-interface diameter verbose'
     - Status: Fixed
-2.[Bug] FGC-:MME shall set the UE sessions as idle state if the sctp association has been aborted
+2.[Bug] FGC-:  shall set the UE sessions as idle state if the sctp association has been aborted
     - Status: Close
-3.[Bug] FGC-:If there is a DCN for ue, MME should select PGW using ue-usage-type.
+3.[Bug] FGC-:If there is a DCN for ue,   should select PGW using ue-usage-type.
     - Status: In progress
     - Progress: Met other issue during the self test
-4.[Study] Add 3 MME function description documents to confluence.
+4.[Study] Add 3   function description documents to confluence.
     - Status: Complete
 </t>
   </si>
@@ -199,12 +199,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.[Bug] FGC-:If there is a DCN for ue,  should select PGW using ue-usage-type.
-2.[Bug] FGC-: /0 crash exit-code 139 on  version 1.6.44.
-</t>
-  </si>
-  <si>
-    <t>SunJianHua</t>
+    <t xml:space="preserve">1.[Bug] FGC-:If there is a DCN for ue,  should select   using ue-usage-type.
+2.[Bug] FGC-: /0 crash exit-code 139 on  version  .
+</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
